--- a/outputs-r202/g__Selenomonas_C.xlsx
+++ b/outputs-r202/g__Selenomonas_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__Selenomonas_C sp900314825</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Selenomonas_C sp900314825</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__Selenomonas_C sp900315575</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Selenomonas_C sp900315575</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__Selenomonas_C sp900318215</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Selenomonas_C sp900318215</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -608,6 +628,11 @@
         <v>0.9999999056578142</v>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Selenomonas_C bovis</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>s__Selenomonas_C bovis</t>
         </is>

--- a/outputs-r202/g__Selenomonas_C.xlsx
+++ b/outputs-r202/g__Selenomonas_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,25 +493,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.22030371629043e-14</v>
+        <v>2.220417046592213e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.22030371629043e-14</v>
+        <v>2.220417046592213e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9996149611417637</v>
+        <v>0.9999216122617662</v>
       </c>
       <c r="E2" t="n">
-        <v>2.22030371629043e-14</v>
+        <v>2.220417046592213e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003699320228497652</v>
+        <v>7.804584130997969e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>1.510683531984268e-05</v>
+        <v>3.41896857266111e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9996149611417637</v>
+        <v>0.9999216122617662</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -531,25 +531,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.21987787241231e-14</v>
+        <v>2.219957296756564e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.21987787241231e-14</v>
+        <v>2.219957296756564e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.21987787241231e-14</v>
+        <v>2.219957296756564e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9967735027893271</v>
+        <v>0.8940829032895057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003224616162707364</v>
+        <v>2.414988193043814e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>1.881047898907311e-06</v>
+        <v>0.1059168552116086</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9967735027893271</v>
+        <v>0.8940829032895057</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -565,74 +565,112 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG371.fasta</t>
+          <t>RUG276.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.2199460654554e-14</v>
+        <v>2.220016420533887e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2199460654554e-14</v>
+        <v>2.220016420533887e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2199460654554e-14</v>
+        <v>2.220016420533887e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.2199460654554e-14</v>
+        <v>0.8485880384644375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9404562051941444</v>
+        <v>9.968604338275277e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05954379480576681</v>
+        <v>0.1514118618494525</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9404562051941444</v>
+        <v>0.8485880384644375</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>s__Selenomonas_C sp900318215</t>
+          <t>s__Selenomonas_C sp900315575</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s__Selenomonas_C sp900318215</t>
+          <t>s__Selenomonas_C sp900315575</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>RUG371.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.225566467291665e-14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.225566467291665e-14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.225566467291665e-14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.225566467291667e-14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4064931808031061</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5935068191967648</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5935068191967648</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Selenomonas_C sp902780535</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Selenomonas_C sp902780535(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>RUG628.fasta</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.9999999056578142</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.220446014336676e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.220446014336676e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.220446014336676e-14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.492655208846758e-12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.434062652649063e-08</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9999999056578142</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="B6" t="n">
+        <v>0.9999999999811177</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.220446049243301e-14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.220446049243301e-14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.220446049243301e-14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.916918770161009e-12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.898872977048729e-12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9999999999811177</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>s__Selenomonas_C bovis</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>s__Selenomonas_C bovis</t>
         </is>
